--- a/datas/dataset/Pageturner.xlsx
+++ b/datas/dataset/Pageturner.xlsx
@@ -5,21 +5,30 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zks\Desktop\p4\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K.S.Zhao\Desktop\JIT_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9948"/>
   </bookViews>
   <sheets>
     <sheet name="Pageturner" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pageturner!$A$1:$O$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
   <si>
     <t>nd</t>
   </si>
@@ -33,13 +42,32 @@
     <t>ld</t>
   </si>
   <si>
+    <t>lt</t>
+  </si>
+  <si>
     <t>ndev</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>nuc</t>
   </si>
   <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>rexp</t>
+  </si>
+  <si>
+    <t>sexp</t>
+  </si>
+  <si>
     <t>contains_bug</t>
+  </si>
+  <si>
+    <t>entropy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -957,13 +985,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,62 +1007,134 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="E2">
+        <v>1.1158488390000001</v>
+      </c>
+      <c r="F2">
         <v>322</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>323</v>
       </c>
-      <c r="E2">
+      <c r="H2">
+        <v>385.55555559999999</v>
+      </c>
+      <c r="I2">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="J2">
+        <v>278.75666539999997</v>
+      </c>
+      <c r="K2">
         <v>220</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>1.0008909450000001</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>381</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1040,24 +1142,48 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>381</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>11.681087959999999</v>
+      </c>
+      <c r="K4">
         <v>40</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>3205</v>
+      </c>
+      <c r="M4">
+        <v>1.0856084640000001</v>
+      </c>
+      <c r="N4">
+        <v>742</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1069,87 +1195,183 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>381</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>78.514282410000007</v>
+      </c>
+      <c r="K5">
         <v>96</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>83</v>
       </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>381</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>151.31890050000001</v>
+      </c>
+      <c r="K6">
         <v>39</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1.0066085600000001</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.60984030499999997</v>
+      </c>
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
+        <v>613.5</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>69.04824653</v>
+      </c>
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.50362065700000003</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>14.43806713</v>
+      </c>
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3204</v>
+      </c>
+      <c r="M8">
+        <v>1.069261349</v>
+      </c>
+      <c r="N8">
+        <v>224</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1161,85 +1383,181 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>93</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="J9">
+        <v>6.2796874999999996</v>
+      </c>
+      <c r="K9">
         <v>96</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>3203</v>
+      </c>
+      <c r="M9">
+        <v>1.159243593</v>
+      </c>
+      <c r="N9">
+        <v>223</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0.98769250900000005</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>324</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>68.098807870000002</v>
+      </c>
+      <c r="K10">
         <v>39</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>3201.5</v>
+      </c>
+      <c r="M10">
+        <v>92.723416360000002</v>
+      </c>
+      <c r="N10">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>413</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>100.3490972</v>
+      </c>
+      <c r="K11">
         <v>37</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>3200</v>
+      </c>
+      <c r="M11">
+        <v>1.009965212</v>
+      </c>
+      <c r="N11">
+        <v>2163</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>93</v>
+      </c>
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="J12">
+        <v>334.84188660000001</v>
+      </c>
+      <c r="K12">
         <v>95</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>3199</v>
+      </c>
+      <c r="M12">
+        <v>1.002986484</v>
+      </c>
+      <c r="N12">
+        <v>222</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1247,208 +1565,424 @@
         <v>1</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>3111</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>1.8039930559999999</v>
+      </c>
+      <c r="K13">
         <v>11</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>3198</v>
+      </c>
+      <c r="M13">
+        <v>1.554325859</v>
+      </c>
+      <c r="N13">
+        <v>2162</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>1733</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>89.847604169999997</v>
+      </c>
+      <c r="K14">
         <v>106</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>3197</v>
+      </c>
+      <c r="M14">
+        <v>1.0111299570000001</v>
+      </c>
+      <c r="N14">
+        <v>2161</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>9</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>192</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>6.5606597219999996</v>
+      </c>
+      <c r="K15">
         <v>12</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>3196</v>
+      </c>
+      <c r="M15">
+        <v>1.1524236960000001</v>
+      </c>
+      <c r="N15">
+        <v>221</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="E16">
+        <v>1.2516291669999999</v>
+      </c>
+      <c r="F16">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
+        <v>131.33333329999999</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>462.4770216</v>
+      </c>
+      <c r="K16">
         <v>53</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>3194</v>
+      </c>
+      <c r="M16">
+        <v>1.001010647</v>
+      </c>
+      <c r="N16">
+        <v>2160</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>11</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3102</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>2.8793518520000001</v>
+      </c>
+      <c r="K17">
         <v>10</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>3192</v>
+      </c>
+      <c r="M17">
+        <v>1.3473003830000001</v>
+      </c>
+      <c r="N17">
+        <v>2159</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>101</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>0.91883101899999997</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>3191</v>
+      </c>
+      <c r="M18">
+        <v>2.0883394009999998</v>
+      </c>
+      <c r="N18">
+        <v>2158</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="E19">
+        <v>1.4847010270000001</v>
+      </c>
+      <c r="F19">
         <v>108</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
+      <c r="H19">
+        <v>1083.666667</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>46.201439039999997</v>
+      </c>
+      <c r="K19">
         <v>17</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>3189</v>
+      </c>
+      <c r="M19">
+        <v>1.0431766200000001</v>
+      </c>
+      <c r="N19">
+        <v>37</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.191433255</v>
+      </c>
+      <c r="F20">
         <v>28</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
+      <c r="H20">
+        <v>1066.5</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>2.71140625</v>
+      </c>
+      <c r="K20">
         <v>53</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>3186.5</v>
+      </c>
+      <c r="M20">
+        <v>1.567252012</v>
+      </c>
+      <c r="N20">
+        <v>2155</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3.0947058E-2</v>
+      </c>
+      <c r="F21">
         <v>1433</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>1385</v>
       </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
+      <c r="H21">
+        <v>1080.333333</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>10.35368441</v>
+      </c>
+      <c r="K21">
         <v>21</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>3184</v>
+      </c>
+      <c r="M21">
+        <v>1.048165102</v>
+      </c>
+      <c r="N21">
+        <v>2153</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1460,315 +1994,651 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>310</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>82.258680560000002</v>
+      </c>
+      <c r="K22">
         <v>16</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>3182</v>
+      </c>
+      <c r="M22">
+        <v>1.012156772</v>
+      </c>
+      <c r="N22">
+        <v>2152</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>0.97095059399999994</v>
       </c>
       <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>526.5</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>326.86978590000001</v>
+      </c>
+      <c r="K23">
         <v>53</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>3180.5</v>
+      </c>
+      <c r="M23">
+        <v>1.0015335620000001</v>
+      </c>
+      <c r="N23">
+        <v>2151</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="E24">
+        <v>1.3143605359999999</v>
+      </c>
+      <c r="F24">
         <v>71</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>19</v>
       </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
+      <c r="H24">
+        <v>962.16666669999995</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>141.6293885</v>
+      </c>
+      <c r="K24">
         <v>176</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>30.5</v>
+      </c>
+      <c r="M24">
+        <v>1.001440876</v>
+      </c>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3040</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>70.155787040000007</v>
+      </c>
+      <c r="K25">
         <v>6</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>3179</v>
+      </c>
+      <c r="M25">
+        <v>1.014253992</v>
+      </c>
+      <c r="N25">
+        <v>2150</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0.48546076100000002</v>
+      </c>
+      <c r="F26">
         <v>6</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>13</v>
       </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
+      <c r="H26">
+        <v>194</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>291.19552659999999</v>
+      </c>
+      <c r="K26">
         <v>27</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>3177.5</v>
+      </c>
+      <c r="M26">
+        <v>1.0018474230000001</v>
+      </c>
+      <c r="N26">
+        <v>2149</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0.863120569</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
         <v>6</v>
       </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27">
+      <c r="H27">
+        <v>99</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>87.827609949999996</v>
+      </c>
+      <c r="K27">
         <v>11</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>3175.5</v>
+      </c>
+      <c r="M27">
+        <v>1.009996503</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>31</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>103</v>
+      </c>
+      <c r="I28">
         <v>6</v>
       </c>
-      <c r="F28">
+      <c r="J28">
+        <v>104.7810301</v>
+      </c>
+      <c r="K28">
         <v>13</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>3174</v>
+      </c>
+      <c r="M28">
+        <v>1.0095437119999999</v>
+      </c>
+      <c r="N28">
+        <v>218</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="E29">
+        <v>1.2168886560000001</v>
+      </c>
+      <c r="F29">
         <v>19</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>22</v>
       </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29">
+      <c r="H29">
+        <v>462</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>13.34411265</v>
+      </c>
+      <c r="K29">
         <v>15</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>3172</v>
+      </c>
+      <c r="M29">
+        <v>1.1404648989999999</v>
+      </c>
+      <c r="N29">
+        <v>2147</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
+      <c r="H30">
+        <v>99</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>34.981145830000003</v>
+      </c>
+      <c r="K30">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>3170</v>
+      </c>
+      <c r="M30">
+        <v>1.0285868279999999</v>
+      </c>
+      <c r="N30">
+        <v>2144</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="E31">
+        <v>1.189465322</v>
+      </c>
+      <c r="F31">
         <v>34</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>39</v>
       </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-      <c r="F31">
+      <c r="H31">
+        <v>615.5</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>5.6578269680000002</v>
+      </c>
+      <c r="K31">
         <v>67</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>3167.5</v>
+      </c>
+      <c r="M31">
+        <v>1.3285659270000001</v>
+      </c>
+      <c r="N31">
+        <v>2143</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="D32">
         <v>13</v>
       </c>
-      <c r="C32">
+      <c r="E32">
+        <v>2.9784555319999999</v>
+      </c>
+      <c r="F32">
         <v>176</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>60</v>
       </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
+      <c r="H32">
+        <v>703</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>15.09449875</v>
+      </c>
+      <c r="K32">
         <v>278</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>3159</v>
+      </c>
+      <c r="M32">
+        <v>1.0166420519999999</v>
+      </c>
+      <c r="N32">
+        <v>2139</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>377</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>35.057280089999999</v>
+      </c>
+      <c r="K33">
         <v>38</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>3152</v>
+      </c>
+      <c r="M33">
+        <v>1.028524746</v>
+      </c>
+      <c r="N33">
+        <v>738</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>53</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>51</v>
       </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
-      <c r="F34">
+      <c r="H34">
+        <v>3014</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>1.49212963</v>
+      </c>
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>3151</v>
+      </c>
+      <c r="M34">
+        <v>1.670183059</v>
+      </c>
+      <c r="N34">
+        <v>2127</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="E35">
-        <v>8</v>
-      </c>
-      <c r="F35">
+      <c r="H35">
+        <v>231</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>1.4306134260000001</v>
+      </c>
+      <c r="K35">
         <v>38</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>3150</v>
+      </c>
+      <c r="M35">
+        <v>1.6990008489999999</v>
+      </c>
+      <c r="N35">
+        <v>2126</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1776,459 +2646,939 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>230</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>4.2554166670000004</v>
+      </c>
+      <c r="K36">
         <v>37</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>3149</v>
+      </c>
+      <c r="M36">
+        <v>1.234994615</v>
+      </c>
+      <c r="N36">
+        <v>2125</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0.46899559400000002</v>
+      </c>
+      <c r="F37">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>11</v>
       </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="F37">
+      <c r="H37">
+        <v>765.5</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>2.133883102</v>
+      </c>
+      <c r="K37">
         <v>97</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>3147.5</v>
+      </c>
+      <c r="M37">
+        <v>1.2348152610000001</v>
+      </c>
+      <c r="N37">
+        <v>2124</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="E38">
+        <v>1.3126725420000001</v>
+      </c>
+      <c r="F38">
         <v>14</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>23</v>
       </c>
-      <c r="E38">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>595.66666669999995</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>4.6809374999999998</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>3145</v>
+      </c>
+      <c r="M38">
+        <v>1.2962817230000001</v>
+      </c>
+      <c r="N38">
+        <v>2123</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>4</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>14</v>
       </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-      <c r="F39">
+      <c r="H39">
+        <v>3024</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>4.4091087959999999</v>
+      </c>
+      <c r="K39">
         <v>3</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>3143</v>
+      </c>
+      <c r="M39">
+        <v>1.2268032040000001</v>
+      </c>
+      <c r="N39">
+        <v>2120</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>19</v>
       </c>
-      <c r="E40">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>556</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>4.8429513890000004</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>3142</v>
+      </c>
+      <c r="M40">
+        <v>1.206485657</v>
+      </c>
+      <c r="N40">
+        <v>2119</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="E41">
+        <v>1.1585488319999999</v>
+      </c>
+      <c r="F41">
         <v>14</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>11</v>
       </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41">
+      <c r="H41">
+        <v>308.33333329999999</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>9.8521219139999996</v>
+      </c>
+      <c r="K41">
         <v>149</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>3140</v>
+      </c>
+      <c r="M41">
+        <v>1.0339895800000001</v>
+      </c>
+      <c r="N41">
+        <v>2118</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0.353359335</v>
+      </c>
+      <c r="F42">
         <v>18</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>12</v>
       </c>
-      <c r="E42">
-        <v>8</v>
-      </c>
-      <c r="F42">
+      <c r="H42">
+        <v>269</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>0.192719907</v>
+      </c>
+      <c r="K42">
         <v>30</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>3137.5</v>
+      </c>
+      <c r="M42">
+        <v>4.8916581590000003</v>
+      </c>
+      <c r="N42">
+        <v>2116</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>224</v>
-      </c>
-      <c r="D43">
-        <v>136</v>
-      </c>
       <c r="E43">
-        <v>8</v>
+        <v>2.8274623480000001</v>
       </c>
       <c r="F43">
         <v>224</v>
       </c>
       <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="H43">
+        <v>597.36363640000002</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>84.852017050000001</v>
+      </c>
+      <c r="K43">
+        <v>224</v>
+      </c>
+      <c r="L43">
+        <v>3131</v>
+      </c>
+      <c r="M43">
+        <v>1.0502528739999999</v>
+      </c>
+      <c r="N43">
+        <v>2114</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="B44">
+      <c r="D44">
         <v>15</v>
       </c>
-      <c r="C44">
+      <c r="E44">
+        <v>2.944189454</v>
+      </c>
+      <c r="F44">
         <v>275</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>210</v>
       </c>
-      <c r="E44">
-        <v>8</v>
-      </c>
-      <c r="F44">
+      <c r="H44">
+        <v>414.26666669999997</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>127.5086883</v>
+      </c>
+      <c r="K44">
         <v>158</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>3118</v>
+      </c>
+      <c r="M44">
+        <v>1.000700685</v>
+      </c>
+      <c r="N44">
+        <v>2105</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>64</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>0.73560185199999994</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3110</v>
+      </c>
+      <c r="M45">
+        <v>2.3594310529999998</v>
+      </c>
+      <c r="N45">
+        <v>36</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="B46">
+      <c r="D46">
         <v>34</v>
       </c>
-      <c r="C46">
+      <c r="E46">
+        <v>3.0281170679999998</v>
+      </c>
+      <c r="F46">
         <v>5593</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>5629</v>
       </c>
-      <c r="E46">
-        <v>8</v>
-      </c>
-      <c r="F46">
+      <c r="H46">
+        <v>280.3823529</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>112.75967970000001</v>
+      </c>
+      <c r="K46">
         <v>666</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>3092.5</v>
+      </c>
+      <c r="M46">
+        <v>1.000463814</v>
+      </c>
+      <c r="N46">
+        <v>35</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
         <v>4</v>
       </c>
-      <c r="E47">
-        <v>8</v>
-      </c>
-      <c r="F47">
+      <c r="H47">
+        <v>505.5</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>4.8922280090000001</v>
+      </c>
+      <c r="K47">
         <v>83</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>3074.5</v>
+      </c>
+      <c r="M47">
+        <v>1.1022152569999999</v>
+      </c>
+      <c r="N47">
+        <v>2066</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="D48">
         <v>24</v>
       </c>
-      <c r="C48">
+      <c r="E48">
+        <v>3.776890437</v>
+      </c>
+      <c r="F48">
         <v>437</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>379</v>
       </c>
-      <c r="E48">
-        <v>8</v>
-      </c>
-      <c r="F48">
+      <c r="H48">
+        <v>244.45833329999999</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>39.316352240000001</v>
+      </c>
+      <c r="K48">
         <v>395</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>3061.5</v>
+      </c>
+      <c r="M48">
+        <v>1.0055617480000001</v>
+      </c>
+      <c r="N48">
+        <v>34</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
         <v>22</v>
       </c>
-      <c r="C49">
+      <c r="E49">
+        <v>3.7951075990000001</v>
+      </c>
+      <c r="F49">
         <v>313</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>257</v>
       </c>
-      <c r="E49">
-        <v>8</v>
-      </c>
-      <c r="F49">
+      <c r="H49">
+        <v>404.63636359999998</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>112.953035</v>
+      </c>
+      <c r="K49">
         <v>514</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>3038.5</v>
+      </c>
+      <c r="M49">
+        <v>1.0199515729999999</v>
+      </c>
+      <c r="N49">
+        <v>2045</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0.90716576800000004</v>
+      </c>
+      <c r="F50">
         <v>41</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>21</v>
       </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-      <c r="F50">
+      <c r="H50">
+        <v>1573.5</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>3.5264583329999999</v>
+      </c>
+      <c r="K50">
         <v>155</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>3026.5</v>
+      </c>
+      <c r="M50">
+        <v>1.2126779700000001</v>
+      </c>
+      <c r="N50">
+        <v>2023</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>5</v>
       </c>
-      <c r="B51">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="C51">
+      <c r="E51">
+        <v>3.0838510220000002</v>
+      </c>
+      <c r="F51">
         <v>231</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>168</v>
       </c>
-      <c r="E51">
-        <v>8</v>
-      </c>
-      <c r="F51">
+      <c r="H51">
+        <v>419.90909090000002</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>156.5333028</v>
+      </c>
+      <c r="K51">
         <v>242</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>3020</v>
+      </c>
+      <c r="M51">
+        <v>2.2264901730000002</v>
+      </c>
+      <c r="N51">
+        <v>2021</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
         <v>17</v>
       </c>
-      <c r="C52">
+      <c r="E52">
+        <v>3.3089880119999999</v>
+      </c>
+      <c r="F52">
         <v>563</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>471</v>
       </c>
-      <c r="E52">
-        <v>8</v>
-      </c>
-      <c r="F52">
+      <c r="H52">
+        <v>495.1176471</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>72.058921569999995</v>
+      </c>
+      <c r="K52">
         <v>450</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>3006</v>
+      </c>
+      <c r="M52">
+        <v>1.011104757</v>
+      </c>
+      <c r="N52">
+        <v>2010</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
         <v>10</v>
       </c>
-      <c r="B53">
+      <c r="D53">
         <v>21</v>
       </c>
-      <c r="C53">
+      <c r="E53">
+        <v>3.826234452</v>
+      </c>
+      <c r="F53">
         <v>410</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>355</v>
       </c>
-      <c r="E53">
-        <v>8</v>
-      </c>
-      <c r="F53">
+      <c r="H53">
+        <v>449.57142859999999</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>177.6987384</v>
+      </c>
+      <c r="K53">
         <v>574</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>2987</v>
+      </c>
+      <c r="M53">
+        <v>1.1813502570000001</v>
+      </c>
+      <c r="N53">
+        <v>1993</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>18</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>169</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <v>5.6840278000000001E-2</v>
+      </c>
+      <c r="K54">
         <v>6</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>2976</v>
+      </c>
+      <c r="M54">
+        <v>18.593158219999999</v>
+      </c>
+      <c r="N54">
+        <v>214</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
         <v>15</v>
       </c>
-      <c r="C55">
+      <c r="E55">
+        <v>2.3989627919999998</v>
+      </c>
+      <c r="F55">
         <v>336</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>339</v>
       </c>
-      <c r="E55">
-        <v>8</v>
-      </c>
-      <c r="F55">
+      <c r="H55">
+        <v>404.8</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>114.285848</v>
+      </c>
+      <c r="K55">
         <v>323</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>2968</v>
+      </c>
+      <c r="M55">
+        <v>1.0136225029999999</v>
+      </c>
+      <c r="N55">
+        <v>1973</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2236,321 +3586,657 @@
         <v>1</v>
       </c>
       <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>27</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>23</v>
       </c>
-      <c r="E56">
-        <v>8</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>188</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>4.1590277779999996</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2960</v>
+      </c>
+      <c r="M56">
+        <v>1.240440808</v>
+      </c>
+      <c r="N56">
+        <v>30</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>32</v>
       </c>
-      <c r="E57">
+      <c r="H57">
+        <v>135</v>
+      </c>
+      <c r="I57">
         <v>6</v>
       </c>
-      <c r="F57">
+      <c r="J57">
+        <v>0.93651620400000002</v>
+      </c>
+      <c r="K57">
         <v>12</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>2959</v>
+      </c>
+      <c r="M57">
+        <v>2.0677871840000002</v>
+      </c>
+      <c r="N57">
+        <v>212</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="B58">
+      <c r="D58">
         <v>41</v>
       </c>
-      <c r="C58">
+      <c r="E58">
+        <v>3.6931581000000002</v>
+      </c>
+      <c r="F58">
         <v>402</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>805</v>
       </c>
-      <c r="E58">
-        <v>8</v>
-      </c>
-      <c r="F58">
+      <c r="H58">
+        <v>354.2195122</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>327.37654839999999</v>
+      </c>
+      <c r="K58">
         <v>750</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>2938</v>
+      </c>
+      <c r="M58">
+        <v>1.0003767539999999</v>
+      </c>
+      <c r="N58">
+        <v>1959</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>5</v>
       </c>
-      <c r="B59">
+      <c r="D59">
         <v>6</v>
       </c>
-      <c r="C59">
+      <c r="E59">
+        <v>2.0678403799999998</v>
+      </c>
+      <c r="F59">
         <v>114</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>172</v>
       </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
-      <c r="F59">
+      <c r="H59">
+        <v>1194.5</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>120.204402</v>
+      </c>
+      <c r="K59">
         <v>345</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>2914.5</v>
+      </c>
+      <c r="M59">
+        <v>2.3082541640000001</v>
+      </c>
+      <c r="N59">
+        <v>1918</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>16</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>11</v>
       </c>
-      <c r="E60">
+      <c r="H60">
+        <v>130</v>
+      </c>
+      <c r="I60">
         <v>6</v>
       </c>
-      <c r="F60">
+      <c r="J60">
+        <v>395.24071759999998</v>
+      </c>
+      <c r="K60">
         <v>11</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>2911</v>
+      </c>
+      <c r="M60">
+        <v>1.0025301040000001</v>
+      </c>
+      <c r="N60">
+        <v>210</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
         <v>4</v>
       </c>
-      <c r="C61">
+      <c r="E61">
+        <v>1.0746174959999999</v>
+      </c>
+      <c r="F61">
         <v>260</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>2908.5</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>209</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>321</v>
       </c>
-      <c r="E62">
-        <v>8</v>
-      </c>
-      <c r="F62">
+      <c r="H62">
+        <v>397</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>0.39203703699999998</v>
+      </c>
+      <c r="K62">
         <v>80</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>2906</v>
+      </c>
+      <c r="M62">
+        <v>3.5507794050000001</v>
+      </c>
+      <c r="N62">
+        <v>207</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
         <v>4</v>
       </c>
-      <c r="B63">
+      <c r="D63">
         <v>4</v>
       </c>
-      <c r="C63">
+      <c r="E63">
+        <v>1.0976101</v>
+      </c>
+      <c r="F63">
         <v>21</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>32</v>
       </c>
-      <c r="E63">
-        <v>8</v>
-      </c>
-      <c r="F63">
+      <c r="H63">
+        <v>930.25</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>99.38480903</v>
+      </c>
+      <c r="K63">
         <v>159</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>2903.5</v>
+      </c>
+      <c r="M63">
+        <v>13.780492300000001</v>
+      </c>
+      <c r="N63">
+        <v>29</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="D64">
         <v>14</v>
       </c>
-      <c r="C64">
+      <c r="E64">
+        <v>3.4014844750000002</v>
+      </c>
+      <c r="F64">
         <v>827</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>751</v>
       </c>
-      <c r="E64">
-        <v>8</v>
-      </c>
-      <c r="F64">
+      <c r="H64">
+        <v>64.428571430000005</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>256.74440559999999</v>
+      </c>
+      <c r="K64">
         <v>29</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>2894.5</v>
+      </c>
+      <c r="M64">
+        <v>1.212688083</v>
+      </c>
+      <c r="N64">
+        <v>28</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>31</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>14</v>
       </c>
-      <c r="E65">
-        <v>8</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <v>1.3148148E-2</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2887</v>
+      </c>
+      <c r="M65">
+        <v>77.056338030000006</v>
+      </c>
+      <c r="N65">
+        <v>204</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
         <v>11</v>
       </c>
-      <c r="B66">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="C66">
+      <c r="E66">
+        <v>1.8993109450000001</v>
+      </c>
+      <c r="F66">
         <v>84</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>104</v>
       </c>
-      <c r="E66">
-        <v>8</v>
-      </c>
-      <c r="F66">
+      <c r="H66">
+        <v>583.33333330000005</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>307.5694522</v>
+      </c>
+      <c r="K66">
         <v>444</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>2880.5</v>
+      </c>
+      <c r="M66">
+        <v>0.91762139300000001</v>
+      </c>
+      <c r="N66">
+        <v>1910</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>15</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>3</v>
       </c>
-      <c r="E67">
+      <c r="H67">
+        <v>394</v>
+      </c>
+      <c r="I67">
         <v>7</v>
       </c>
-      <c r="F67">
+      <c r="J67">
+        <v>1.002696759</v>
+      </c>
+      <c r="K67">
         <v>33</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1.9973104939999999</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>3</v>
       </c>
-      <c r="E68">
+      <c r="H68">
+        <v>394</v>
+      </c>
+      <c r="I68">
         <v>7</v>
       </c>
-      <c r="F68">
+      <c r="J68">
+        <v>106.3764236</v>
+      </c>
+      <c r="K68">
         <v>32</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0.90159823500000003</v>
+      </c>
+      <c r="F69">
         <v>48</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>15</v>
       </c>
-      <c r="E69">
-        <v>8</v>
-      </c>
-      <c r="F69">
+      <c r="H69">
+        <v>988.5</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="J69">
+        <v>249.1722743</v>
+      </c>
+      <c r="K69">
         <v>104</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>5.5</v>
+      </c>
+      <c r="M69">
+        <v>1.0024195849999999</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2558,68 +4244,140 @@
         <v>1</v>
       </c>
       <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>16</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>7</v>
       </c>
-      <c r="E70">
+      <c r="H70">
+        <v>125</v>
+      </c>
+      <c r="I70">
         <v>6</v>
       </c>
-      <c r="F70">
+      <c r="J70">
+        <v>240.59288190000001</v>
+      </c>
+      <c r="K70">
         <v>9</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0.45371633900000002</v>
+      </c>
+      <c r="F71">
         <v>31</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>11</v>
       </c>
-      <c r="E71">
+      <c r="H71">
+        <v>80.5</v>
+      </c>
+      <c r="I71">
         <v>6</v>
       </c>
-      <c r="F71">
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>18</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0.50325833499999995</v>
+      </c>
+      <c r="F72">
         <v>25</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>11</v>
       </c>
-      <c r="E72">
+      <c r="H72">
+        <v>73.5</v>
+      </c>
+      <c r="I72">
         <v>6</v>
       </c>
-      <c r="F72">
+      <c r="J72">
+        <v>204.13487269999999</v>
+      </c>
+      <c r="K72">
         <v>16</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>1.5</v>
+      </c>
+      <c r="M72">
+        <v>1.002449361</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2627,116 +4385,236 @@
         <v>1</v>
       </c>
       <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>11</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>4</v>
       </c>
-      <c r="E73">
-        <v>8</v>
-      </c>
-      <c r="F73">
+      <c r="H73">
+        <v>3262</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>112.678912</v>
+      </c>
+      <c r="K73">
         <v>146</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>2874</v>
+      </c>
+      <c r="M73">
+        <v>1.008874775</v>
+      </c>
+      <c r="N73">
+        <v>1908</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <v>3</v>
       </c>
-      <c r="E74">
+      <c r="H74">
+        <v>245</v>
+      </c>
+      <c r="I74">
         <v>7</v>
       </c>
-      <c r="F74">
+      <c r="J74">
+        <v>84.079502309999995</v>
+      </c>
+      <c r="K74">
         <v>172</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>2872.5</v>
+      </c>
+      <c r="M74">
+        <v>1.0089201290000001</v>
+      </c>
+      <c r="N74">
+        <v>201</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>10</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75">
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>326</v>
+      </c>
+      <c r="I75">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>8</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>280.18737270000003</v>
+      </c>
+      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <v>2871</v>
+      </c>
+      <c r="M75">
+        <v>1.0035690399999999</v>
+      </c>
+      <c r="N75">
+        <v>1907</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>13</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>383</v>
+      </c>
+      <c r="I76">
         <v>7</v>
       </c>
-      <c r="F76">
+      <c r="J76">
+        <v>177.22954859999999</v>
+      </c>
+      <c r="K76">
         <v>31</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>2870</v>
+      </c>
+      <c r="M76">
+        <v>1.0056423999999999</v>
+      </c>
+      <c r="N76">
+        <v>1906</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>3</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
-      <c r="F77">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>434</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>34.08174769</v>
+      </c>
+      <c r="K77">
         <v>26</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>2869</v>
+      </c>
+      <c r="M77">
+        <v>1.0293412179999999</v>
+      </c>
+      <c r="N77">
+        <v>1905</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2748,338 +4626,698 @@
         <v>1</v>
       </c>
       <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>93</v>
+      </c>
+      <c r="I78">
         <v>7</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>214.1502778</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2868</v>
+      </c>
+      <c r="M78">
+        <v>1.0046696180000001</v>
+      </c>
+      <c r="N78">
+        <v>1904</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F79">
         <v>3</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="H79">
+        <v>245</v>
+      </c>
+      <c r="I79">
         <v>7</v>
       </c>
-      <c r="F79">
+      <c r="J79">
+        <v>2.1366435190000002</v>
+      </c>
+      <c r="K79">
         <v>170</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>2866.5</v>
+      </c>
+      <c r="M79">
+        <v>1.3510178429999999</v>
+      </c>
+      <c r="N79">
+        <v>199</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="E80">
+        <v>1.399581231</v>
+      </c>
+      <c r="F80">
         <v>7</v>
       </c>
-      <c r="D80">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>8</v>
-      </c>
-      <c r="F80">
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80">
+        <v>1744.333333</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>31.678182870000001</v>
+      </c>
+      <c r="K80">
         <v>243</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>2864</v>
+      </c>
+      <c r="M80">
+        <v>1.0867026319999999</v>
+      </c>
+      <c r="N80">
+        <v>1903</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F81">
         <v>3</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>3</v>
       </c>
-      <c r="E81">
+      <c r="H81">
+        <v>245</v>
+      </c>
+      <c r="I81">
         <v>7</v>
       </c>
-      <c r="F81">
+      <c r="J81">
+        <v>25.107986109999999</v>
+      </c>
+      <c r="K81">
         <v>168</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>2861.5</v>
+      </c>
+      <c r="M81">
+        <v>1.0298709740000001</v>
+      </c>
+      <c r="N81">
+        <v>197</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
         <v>4</v>
       </c>
-      <c r="C82">
+      <c r="E82">
+        <v>1.0477227979999999</v>
+      </c>
+      <c r="F82">
         <v>70</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>21</v>
       </c>
-      <c r="E82">
-        <v>8</v>
-      </c>
-      <c r="F82">
+      <c r="H82">
+        <v>269</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <v>2.6152662040000001</v>
+      </c>
+      <c r="K82">
         <v>87</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>2858.5</v>
+      </c>
+      <c r="M82">
+        <v>1.199151173</v>
+      </c>
+      <c r="N82">
+        <v>1900</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0.97095059399999994</v>
+      </c>
+      <c r="F83">
         <v>4</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>8</v>
-      </c>
-      <c r="F83">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1129.5</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>3.2939699070000001</v>
+      </c>
+      <c r="K83">
         <v>108</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>2855.5</v>
+      </c>
+      <c r="M83">
+        <v>1.2074579780000001</v>
+      </c>
+      <c r="N83">
+        <v>1896</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
         <v>4</v>
       </c>
-      <c r="C84">
+      <c r="E84">
+        <v>1.2792000960000001</v>
+      </c>
+      <c r="F84">
         <v>87</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>45</v>
       </c>
-      <c r="E84">
-        <v>8</v>
-      </c>
-      <c r="F84">
+      <c r="H84">
+        <v>258.5</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
+      <c r="J84">
+        <v>0.95970486099999996</v>
+      </c>
+      <c r="K84">
         <v>83</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>2852.5</v>
+      </c>
+      <c r="M84">
+        <v>1.529665107</v>
+      </c>
+      <c r="N84">
+        <v>1894</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
         <v>3</v>
       </c>
-      <c r="C85">
+      <c r="E85">
+        <v>1.185248217</v>
+      </c>
+      <c r="F85">
         <v>62</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>20</v>
       </c>
-      <c r="E85">
-        <v>8</v>
-      </c>
-      <c r="F85">
+      <c r="H85">
+        <v>735.66666669999995</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
+      <c r="J85">
+        <v>0.555941358</v>
+      </c>
+      <c r="K85">
         <v>116</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>2849</v>
+      </c>
+      <c r="M85">
+        <v>1.8717928939999999</v>
+      </c>
+      <c r="N85">
+        <v>1890</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>0.68403843600000003</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86">
         <v>3</v>
       </c>
-      <c r="E86">
-        <v>8</v>
-      </c>
-      <c r="F86">
+      <c r="H86">
+        <v>1845</v>
+      </c>
+      <c r="I86">
+        <v>8</v>
+      </c>
+      <c r="J86">
+        <v>19.279728009999999</v>
+      </c>
+      <c r="K86">
         <v>168</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>2846.5</v>
+      </c>
+      <c r="M86">
+        <v>1.0259368719999999</v>
+      </c>
+      <c r="N86">
+        <v>1887</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0.99990015700000001</v>
+      </c>
+      <c r="F87">
         <v>36</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>49</v>
       </c>
-      <c r="E87">
-        <v>8</v>
-      </c>
-      <c r="F87">
+      <c r="H87">
+        <v>983.5</v>
+      </c>
+      <c r="I87">
+        <v>8</v>
+      </c>
+      <c r="J87">
+        <v>0.23887731500000001</v>
+      </c>
+      <c r="K87">
         <v>93</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>2844.5</v>
+      </c>
+      <c r="M87">
+        <v>3.5451054169999998</v>
+      </c>
+      <c r="N87">
+        <v>1885</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>16</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>41</v>
       </c>
-      <c r="E88">
-        <v>8</v>
-      </c>
-      <c r="F88">
+      <c r="H88">
+        <v>458</v>
+      </c>
+      <c r="I88">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>0.307893519</v>
+      </c>
+      <c r="K88">
         <v>23</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>2843</v>
+      </c>
+      <c r="M88">
+        <v>4.2478761</v>
+      </c>
+      <c r="N88">
+        <v>1883</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
         <v>4</v>
       </c>
-      <c r="B89">
+      <c r="D89">
         <v>7</v>
       </c>
-      <c r="C89">
+      <c r="E89">
+        <v>1.521921276</v>
+      </c>
+      <c r="F89">
         <v>114</v>
       </c>
-      <c r="D89">
+      <c r="G89">
         <v>105</v>
       </c>
-      <c r="E89">
-        <v>8</v>
-      </c>
-      <c r="F89">
+      <c r="H89">
+        <v>163.42857140000001</v>
+      </c>
+      <c r="I89">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>146.820458</v>
+      </c>
+      <c r="K89">
         <v>97</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>2839</v>
+      </c>
+      <c r="M89">
+        <v>1.002832597</v>
+      </c>
+      <c r="N89">
+        <v>1882</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0.98636760700000004</v>
+      </c>
+      <c r="F90">
         <v>30</v>
       </c>
-      <c r="D90">
+      <c r="G90">
         <v>21</v>
       </c>
-      <c r="E90">
-        <v>8</v>
-      </c>
-      <c r="F90">
+      <c r="H90">
+        <v>1111.5</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>2.0891204E-2</v>
+      </c>
+      <c r="K90">
         <v>112</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>2834.5</v>
+      </c>
+      <c r="M90">
+        <v>36.900277010000003</v>
+      </c>
+      <c r="N90">
+        <v>1877</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>0.99323382000000004</v>
+      </c>
+      <c r="F91">
         <v>53</v>
       </c>
-      <c r="D91">
+      <c r="G91">
         <v>40</v>
       </c>
-      <c r="E91">
-        <v>8</v>
-      </c>
-      <c r="F91">
+      <c r="H91">
+        <v>1000</v>
+      </c>
+      <c r="I91">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>52.473454859999997</v>
+      </c>
+      <c r="K91">
         <v>90</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>2832.5</v>
+      </c>
+      <c r="M91">
+        <v>1.0106659010000001</v>
+      </c>
+      <c r="N91">
+        <v>1875</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
         <v>3</v>
       </c>
-      <c r="C92">
+      <c r="E92">
+        <v>1.1928004720000001</v>
+      </c>
+      <c r="F92">
         <v>127</v>
       </c>
-      <c r="D92">
+      <c r="G92">
         <v>48</v>
       </c>
-      <c r="E92">
-        <v>8</v>
-      </c>
-      <c r="F92">
+      <c r="H92">
+        <v>871</v>
+      </c>
+      <c r="I92">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>11.6997608</v>
+      </c>
+      <c r="K92">
         <v>125</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>2830</v>
+      </c>
+      <c r="M92">
+        <v>1.028547015</v>
+      </c>
+      <c r="N92">
+        <v>1873</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3087,137 +5325,281 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <v>3</v>
       </c>
-      <c r="E93">
+      <c r="H93">
+        <v>95</v>
+      </c>
+      <c r="I93">
         <v>7</v>
       </c>
-      <c r="F93">
+      <c r="J93">
+        <v>199.29559029999999</v>
+      </c>
+      <c r="K93">
         <v>4</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>2828</v>
+      </c>
+      <c r="M93">
+        <v>1.0050176719999999</v>
+      </c>
+      <c r="N93">
+        <v>1870</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
         <v>3</v>
       </c>
-      <c r="C94">
+      <c r="E94">
+        <v>0.47984099699999999</v>
+      </c>
+      <c r="F94">
         <v>113</v>
       </c>
-      <c r="D94">
+      <c r="G94">
         <v>47</v>
       </c>
-      <c r="E94">
-        <v>8</v>
-      </c>
-      <c r="F94">
+      <c r="H94">
+        <v>773.33333330000005</v>
+      </c>
+      <c r="I94">
+        <v>8</v>
+      </c>
+      <c r="J94">
+        <v>92.958425930000004</v>
+      </c>
+      <c r="K94">
         <v>122</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>2826</v>
+      </c>
+      <c r="M94">
+        <v>1.0079419430000001</v>
+      </c>
+      <c r="N94">
+        <v>1869</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F95">
         <v>3</v>
       </c>
-      <c r="D95">
+      <c r="G95">
         <v>3</v>
       </c>
-      <c r="E95">
+      <c r="H95">
+        <v>245</v>
+      </c>
+      <c r="I95">
         <v>7</v>
       </c>
-      <c r="F95">
+      <c r="J95">
+        <v>14.742673610000001</v>
+      </c>
+      <c r="K95">
         <v>166</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>2823.5</v>
+      </c>
+      <c r="M95">
+        <v>1.0508727259999999</v>
+      </c>
+      <c r="N95">
+        <v>195</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
         <v>4</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>224</v>
+      </c>
+      <c r="I96">
         <v>7</v>
       </c>
-      <c r="F96">
+      <c r="J96">
+        <v>28.917534719999999</v>
+      </c>
+      <c r="K96">
         <v>17</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>2822</v>
+      </c>
+      <c r="M96">
+        <v>1.034581094</v>
+      </c>
+      <c r="N96">
+        <v>1866</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>14</v>
       </c>
-      <c r="D97">
+      <c r="G97">
         <v>5</v>
       </c>
-      <c r="E97">
+      <c r="H97">
+        <v>658</v>
+      </c>
+      <c r="I97">
         <v>7</v>
       </c>
-      <c r="F97">
+      <c r="J97">
+        <v>32.991863430000002</v>
+      </c>
+      <c r="K97">
         <v>45</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>2821</v>
+      </c>
+      <c r="M97">
+        <v>1.030310504</v>
+      </c>
+      <c r="N97">
+        <v>1865</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F98">
         <v>3</v>
       </c>
-      <c r="D98">
+      <c r="G98">
         <v>3</v>
       </c>
-      <c r="E98">
+      <c r="H98">
+        <v>245</v>
+      </c>
+      <c r="I98">
         <v>7</v>
       </c>
-      <c r="F98">
+      <c r="J98">
+        <v>18.26658565</v>
+      </c>
+      <c r="K98">
         <v>164</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>2819.5</v>
+      </c>
+      <c r="M98">
+        <v>1.041055732</v>
+      </c>
+      <c r="N98">
+        <v>193</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3225,22 +5607,46 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99">
         <v>6</v>
       </c>
-      <c r="E99">
+      <c r="H99">
+        <v>459</v>
+      </c>
+      <c r="I99">
         <v>7</v>
       </c>
-      <c r="F99">
+      <c r="J99">
+        <v>118.2266319</v>
+      </c>
+      <c r="K99">
         <v>14</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>2818</v>
+      </c>
+      <c r="M99">
+        <v>1.0084583309999999</v>
+      </c>
+      <c r="N99">
+        <v>1864</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3248,22 +5654,46 @@
         <v>1</v>
       </c>
       <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>4</v>
       </c>
-      <c r="D100">
+      <c r="G100">
         <v>5</v>
       </c>
-      <c r="E100">
-        <v>8</v>
-      </c>
-      <c r="F100">
+      <c r="H100">
+        <v>3258</v>
+      </c>
+      <c r="I100">
+        <v>8</v>
+      </c>
+      <c r="J100">
+        <v>14.999525459999999</v>
+      </c>
+      <c r="K100">
         <v>143</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>2817</v>
+      </c>
+      <c r="M100">
+        <v>1.066668776</v>
+      </c>
+      <c r="N100">
+        <v>1863</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3271,22 +5701,46 @@
         <v>1</v>
       </c>
       <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>4</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>477</v>
+      </c>
+      <c r="I101">
         <v>7</v>
       </c>
-      <c r="F101">
+      <c r="J101">
+        <v>108.5467477</v>
+      </c>
+      <c r="K101">
         <v>24</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>2816</v>
+      </c>
+      <c r="M101">
+        <v>1.0092126210000001</v>
+      </c>
+      <c r="N101">
+        <v>1862</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3294,24 +5748,48 @@
         <v>1</v>
       </c>
       <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>12</v>
       </c>
-      <c r="D102">
+      <c r="G102">
         <v>4</v>
       </c>
-      <c r="E102">
+      <c r="H102">
+        <v>216</v>
+      </c>
+      <c r="I102">
         <v>7</v>
       </c>
-      <c r="F102">
+      <c r="J102">
+        <v>73.714120370000003</v>
+      </c>
+      <c r="K102">
         <v>16</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>2815</v>
+      </c>
+      <c r="M102">
+        <v>1.013565922</v>
+      </c>
+      <c r="N102">
+        <v>1861</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3323,131 +5801,275 @@
         <v>1</v>
       </c>
       <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>397</v>
+      </c>
+      <c r="I103">
         <v>7</v>
       </c>
-      <c r="F103">
+      <c r="J103">
+        <v>6.0580671300000004</v>
+      </c>
+      <c r="K103">
         <v>73</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>2814</v>
+      </c>
+      <c r="M103">
+        <v>1.165069151</v>
+      </c>
+      <c r="N103">
+        <v>191</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>93</v>
+      </c>
+      <c r="I104">
         <v>7</v>
       </c>
-      <c r="F104">
+      <c r="J104">
+        <v>6.0542708330000004</v>
+      </c>
+      <c r="K104">
         <v>89</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>2813</v>
+      </c>
+      <c r="M104">
+        <v>1.1651726570000001</v>
+      </c>
+      <c r="N104">
+        <v>190</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>0.96123660499999997</v>
+      </c>
+      <c r="F105">
         <v>10</v>
       </c>
-      <c r="D105">
+      <c r="G105">
         <v>3</v>
       </c>
-      <c r="E105">
-        <v>8</v>
-      </c>
-      <c r="F105">
+      <c r="H105">
+        <v>1691</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105">
+        <v>25.232494209999999</v>
+      </c>
+      <c r="K105">
         <v>154</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>2811.5</v>
+      </c>
+      <c r="M105">
+        <v>1.0294092990000001</v>
+      </c>
+      <c r="N105">
+        <v>1860</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>651</v>
+      </c>
+      <c r="I106">
         <v>7</v>
       </c>
-      <c r="F106">
+      <c r="J106">
+        <v>69.076863430000003</v>
+      </c>
+      <c r="K106">
         <v>44</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>2810</v>
+      </c>
+      <c r="M106">
+        <v>1.0144766270000001</v>
+      </c>
+      <c r="N106">
+        <v>1858</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
         <v>5</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>71</v>
+      </c>
+      <c r="I107">
         <v>7</v>
       </c>
-      <c r="F107">
-        <v>8</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>111.0429977</v>
+      </c>
+      <c r="K107">
+        <v>8</v>
+      </c>
+      <c r="L107">
+        <v>2809</v>
+      </c>
+      <c r="M107">
+        <v>1.009005521</v>
+      </c>
+      <c r="N107">
+        <v>1857</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>3</v>
       </c>
-      <c r="B108">
+      <c r="D108">
         <v>3</v>
       </c>
-      <c r="C108">
+      <c r="E108">
+        <v>1.492614068</v>
+      </c>
+      <c r="F108">
         <v>10</v>
       </c>
-      <c r="D108">
+      <c r="G108">
         <v>4</v>
       </c>
-      <c r="E108">
-        <v>8</v>
-      </c>
-      <c r="F108">
+      <c r="H108">
+        <v>907.33333330000005</v>
+      </c>
+      <c r="I108">
+        <v>8</v>
+      </c>
+      <c r="J108">
+        <v>39.757334100000001</v>
+      </c>
+      <c r="K108">
         <v>130</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>2807</v>
+      </c>
+      <c r="M108">
+        <v>1.011110819</v>
+      </c>
+      <c r="N108">
+        <v>1856</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3461,271 +6083,559 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>388</v>
+      </c>
+      <c r="I109">
+        <v>8</v>
+      </c>
+      <c r="J109">
+        <v>1.032199074</v>
+      </c>
+      <c r="K109">
         <v>26</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>2805</v>
+      </c>
+      <c r="M109">
+        <v>1.9688053640000001</v>
+      </c>
+      <c r="N109">
+        <v>714</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>245</v>
+      </c>
+      <c r="I110">
         <v>7</v>
       </c>
-      <c r="F110">
+      <c r="J110">
+        <v>57.959444439999999</v>
+      </c>
+      <c r="K110">
         <v>160</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>2803.5</v>
+      </c>
+      <c r="M110">
+        <v>1.0122502330000001</v>
+      </c>
+      <c r="N110">
+        <v>189</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>72</v>
       </c>
-      <c r="D111">
+      <c r="G111">
         <v>78</v>
       </c>
-      <c r="E111">
-        <v>8</v>
-      </c>
-      <c r="F111">
+      <c r="H111">
+        <v>394</v>
+      </c>
+      <c r="I111">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>9.9668055560000006</v>
+      </c>
+      <c r="K111">
         <v>25</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>2802</v>
+      </c>
+      <c r="M111">
+        <v>1.1003330499999999</v>
+      </c>
+      <c r="N111">
+        <v>713</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
         <v>67</v>
       </c>
-      <c r="D112">
+      <c r="G112">
         <v>69</v>
       </c>
-      <c r="E112">
-        <v>8</v>
-      </c>
-      <c r="F112">
+      <c r="H112">
+        <v>404</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+      <c r="J112">
+        <v>7.9599421299999999</v>
+      </c>
+      <c r="K112">
         <v>13</v>
       </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>2801</v>
+      </c>
+      <c r="M112">
+        <v>1.125629054</v>
+      </c>
+      <c r="N112">
+        <v>712</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>2.9076410099999999</v>
+      </c>
+      <c r="F113">
         <v>331</v>
       </c>
-      <c r="D113">
+      <c r="G113">
         <v>18</v>
       </c>
-      <c r="E113">
-        <v>8</v>
-      </c>
-      <c r="F113">
+      <c r="H113">
+        <v>359.75</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <v>123.7777691</v>
+      </c>
+      <c r="K113">
         <v>193</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>2796.5</v>
+      </c>
+      <c r="M113">
+        <v>1.003403008</v>
+      </c>
+      <c r="N113">
+        <v>711</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
         <v>7</v>
       </c>
-      <c r="D114">
+      <c r="G114">
         <v>5</v>
       </c>
-      <c r="E114">
+      <c r="H114">
+        <v>59</v>
+      </c>
+      <c r="I114">
         <v>7</v>
       </c>
-      <c r="F114">
+      <c r="J114">
+        <v>253.4250116</v>
+      </c>
+      <c r="K114">
         <v>27</v>
       </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>2792</v>
+      </c>
+      <c r="M114">
+        <v>1.0039459399999999</v>
+      </c>
+      <c r="N114">
+        <v>703</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>150</v>
+      </c>
+      <c r="I115">
         <v>7</v>
       </c>
-      <c r="F115">
+      <c r="J115">
+        <v>8.8844907410000005</v>
+      </c>
+      <c r="K115">
         <v>16</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>2791</v>
+      </c>
+      <c r="M115">
+        <v>1.1125556919999999</v>
+      </c>
+      <c r="N115">
+        <v>1853</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>4</v>
       </c>
-      <c r="B116">
+      <c r="D116">
         <v>5</v>
       </c>
-      <c r="C116">
+      <c r="E116">
+        <v>1.6816221689999999</v>
+      </c>
+      <c r="F116">
         <v>85</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>24</v>
       </c>
-      <c r="E116">
-        <v>8</v>
-      </c>
-      <c r="F116">
+      <c r="H116">
+        <v>1075.8</v>
+      </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <v>35.122999999999998</v>
+      </c>
+      <c r="K116">
         <v>243</v>
       </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>2788</v>
+      </c>
+      <c r="M116">
+        <v>1.340869197</v>
+      </c>
+      <c r="N116">
+        <v>1852</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>0.30458668900000002</v>
+      </c>
+      <c r="F117">
         <v>38</v>
       </c>
-      <c r="D117">
+      <c r="G117">
         <v>54</v>
       </c>
-      <c r="E117">
-        <v>8</v>
-      </c>
-      <c r="F117">
+      <c r="H117">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>8</v>
+      </c>
+      <c r="J117">
+        <v>3.5697916670000001</v>
+      </c>
+      <c r="K117">
         <v>13</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>2784.5</v>
+      </c>
+      <c r="M117">
+        <v>1.1409210320000001</v>
+      </c>
+      <c r="N117">
+        <v>1847</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>3</v>
       </c>
-      <c r="B118">
+      <c r="D118">
         <v>4</v>
       </c>
-      <c r="C118">
+      <c r="E118">
+        <v>1.6566290610000001</v>
+      </c>
+      <c r="F118">
         <v>43</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>8</v>
-      </c>
-      <c r="F118">
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1279</v>
+      </c>
+      <c r="I118">
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <v>1.3733969909999999</v>
+      </c>
+      <c r="K118">
         <v>241</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>2781.5</v>
+      </c>
+      <c r="M118">
+        <v>4.7670483700000004</v>
+      </c>
+      <c r="N118">
+        <v>1846</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>3</v>
       </c>
-      <c r="B119">
+      <c r="D119">
         <v>3</v>
       </c>
-      <c r="C119">
+      <c r="E119">
+        <v>1.036701707</v>
+      </c>
+      <c r="F119">
         <v>70</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>8</v>
-      </c>
-      <c r="F119">
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1230.333333</v>
+      </c>
+      <c r="I119">
+        <v>8</v>
+      </c>
+      <c r="J119">
+        <v>0.112006173</v>
+      </c>
+      <c r="K119">
         <v>234</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>2778</v>
+      </c>
+      <c r="M119">
+        <v>5.9039114960000001</v>
+      </c>
+      <c r="N119">
+        <v>1842</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
         <v>5</v>
       </c>
-      <c r="C120">
+      <c r="E120">
+        <v>1.6086795890000001</v>
+      </c>
+      <c r="F120">
         <v>105</v>
       </c>
-      <c r="D120">
+      <c r="G120">
         <v>33</v>
       </c>
-      <c r="E120">
-        <v>8</v>
-      </c>
-      <c r="F120">
+      <c r="H120">
+        <v>764</v>
+      </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
+      <c r="J120">
+        <v>15.3756088</v>
+      </c>
+      <c r="K120">
         <v>189</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>2774</v>
+      </c>
+      <c r="M120">
+        <v>1.0224675599999999</v>
+      </c>
+      <c r="N120">
+        <v>1840</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3737,108 +6647,228 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>131</v>
+      </c>
+      <c r="I121">
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <v>9.1203699999999992E-3</v>
+      </c>
+      <c r="K121">
         <v>4</v>
       </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>2771</v>
+      </c>
+      <c r="M121">
+        <v>110.6446701</v>
+      </c>
+      <c r="N121">
+        <v>1835</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
         <v>3</v>
       </c>
-      <c r="B122">
+      <c r="D122">
         <v>6</v>
       </c>
-      <c r="C122">
+      <c r="E122">
+        <v>1.8079303959999999</v>
+      </c>
+      <c r="F122">
         <v>119</v>
       </c>
-      <c r="D122">
+      <c r="G122">
         <v>24</v>
       </c>
-      <c r="E122">
-        <v>8</v>
-      </c>
-      <c r="F122">
+      <c r="H122">
+        <v>668.5</v>
+      </c>
+      <c r="I122">
+        <v>8</v>
+      </c>
+      <c r="J122">
+        <v>1.566456404</v>
+      </c>
+      <c r="K122">
         <v>271</v>
       </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>2767.5</v>
+      </c>
+      <c r="M122">
+        <v>6.6344332069999998</v>
+      </c>
+      <c r="N122">
+        <v>1834</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
         <v>3</v>
       </c>
-      <c r="C123">
+      <c r="E123">
+        <v>1.405624166</v>
+      </c>
+      <c r="F123">
         <v>231</v>
       </c>
-      <c r="D123">
+      <c r="G123">
         <v>243</v>
       </c>
-      <c r="E123">
-        <v>8</v>
-      </c>
-      <c r="F123">
+      <c r="H123">
+        <v>101.33333330000001</v>
+      </c>
+      <c r="I123">
+        <v>8</v>
+      </c>
+      <c r="J123">
+        <v>6.546338735</v>
+      </c>
+      <c r="K123">
         <v>12</v>
       </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>2763</v>
+      </c>
+      <c r="M123">
+        <v>1.09339341</v>
+      </c>
+      <c r="N123">
+        <v>1829</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>4</v>
       </c>
-      <c r="D124">
+      <c r="G124">
         <v>3</v>
       </c>
-      <c r="E124">
-        <v>8</v>
-      </c>
-      <c r="F124">
+      <c r="H124">
+        <v>377</v>
+      </c>
+      <c r="I124">
+        <v>8</v>
+      </c>
+      <c r="J124">
+        <v>5.5371527780000003</v>
+      </c>
+      <c r="K124">
         <v>88</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>2761</v>
+      </c>
+      <c r="M124">
+        <v>1.1805982319999999</v>
+      </c>
+      <c r="N124">
+        <v>699</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>150</v>
+      </c>
+      <c r="I125">
         <v>7</v>
       </c>
-      <c r="F125">
+      <c r="J125">
+        <v>26.820011569999998</v>
+      </c>
+      <c r="K125">
         <v>15</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>2760</v>
+      </c>
+      <c r="M125">
+        <v>1.0372855919999999</v>
+      </c>
+      <c r="N125">
+        <v>1826</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3852,16 +6882,40 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>3104</v>
+      </c>
+      <c r="I126">
+        <v>8</v>
+      </c>
+      <c r="J126">
+        <v>5.5199421299999996</v>
+      </c>
+      <c r="K126">
         <v>136</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>2759</v>
+      </c>
+      <c r="M126">
+        <v>1.18116132</v>
+      </c>
+      <c r="N126">
+        <v>1825</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3875,154 +6929,322 @@
         <v>1</v>
       </c>
       <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1609</v>
+      </c>
+      <c r="I127">
         <v>7</v>
       </c>
-      <c r="F127">
+      <c r="J127">
+        <v>7.7331481479999997</v>
+      </c>
+      <c r="K127">
         <v>84</v>
       </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>2758</v>
+      </c>
+      <c r="M127">
+        <v>1.1293134410000001</v>
+      </c>
+      <c r="N127">
+        <v>1824</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>0.17203694899999999</v>
+      </c>
+      <c r="F128">
         <v>33</v>
       </c>
-      <c r="D128">
+      <c r="G128">
         <v>6</v>
       </c>
-      <c r="E128">
-        <v>8</v>
-      </c>
-      <c r="F128">
+      <c r="H128">
+        <v>1727</v>
+      </c>
+      <c r="I128">
+        <v>8</v>
+      </c>
+      <c r="J128">
+        <v>0.53335648099999999</v>
+      </c>
+      <c r="K128">
         <v>222</v>
       </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>2756.5</v>
+      </c>
+      <c r="M128">
+        <v>22.40910775</v>
+      </c>
+      <c r="N128">
+        <v>1823</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>0.66657835799999998</v>
+      </c>
+      <c r="F129">
         <v>20</v>
       </c>
-      <c r="D129">
+      <c r="G129">
         <v>3</v>
       </c>
-      <c r="E129">
-        <v>8</v>
-      </c>
-      <c r="F129">
+      <c r="H129">
+        <v>846</v>
+      </c>
+      <c r="I129">
+        <v>8</v>
+      </c>
+      <c r="J129">
+        <v>123.61464119999999</v>
+      </c>
+      <c r="K129">
         <v>129</v>
       </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>2754.5</v>
+      </c>
+      <c r="M129">
+        <v>1.0041149549999999</v>
+      </c>
+      <c r="N129">
+        <v>1822</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
         <v>5</v>
       </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>8</v>
-      </c>
-      <c r="F130">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>126</v>
+      </c>
+      <c r="I130">
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <v>8.8078700000000006E-3</v>
+      </c>
+      <c r="K130">
         <v>7</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>22</v>
+      </c>
+      <c r="M130">
+        <v>114.5348226</v>
+      </c>
+      <c r="N130">
+        <v>15</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F131">
         <v>6</v>
       </c>
-      <c r="D131">
+      <c r="G131">
         <v>6</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>2</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>86.5</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0.192430556</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>20.5</v>
+      </c>
+      <c r="M131">
+        <v>4.8975099240000004</v>
+      </c>
+      <c r="N131">
+        <v>14</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
         <v>5</v>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132">
-        <v>8</v>
-      </c>
-      <c r="F132">
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>123</v>
+      </c>
+      <c r="I132">
+        <v>8</v>
+      </c>
+      <c r="J132">
+        <v>2.9837962999999999E-2</v>
+      </c>
+      <c r="K132">
         <v>6</v>
       </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>19</v>
+      </c>
+      <c r="M132">
+        <v>34.514352209999998</v>
+      </c>
+      <c r="N132">
+        <v>12</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>0.56650950700000002</v>
+      </c>
+      <c r="F133">
         <v>12</v>
       </c>
-      <c r="D133">
+      <c r="G133">
         <v>3</v>
       </c>
-      <c r="E133">
-        <v>8</v>
-      </c>
-      <c r="F133">
+      <c r="H133">
+        <v>1596</v>
+      </c>
+      <c r="I133">
+        <v>8</v>
+      </c>
+      <c r="J133">
+        <v>118.5957118</v>
+      </c>
+      <c r="K133">
         <v>139</v>
       </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>17.5</v>
+      </c>
+      <c r="M133">
+        <v>5.692152514</v>
+      </c>
+      <c r="N133">
+        <v>11</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4030,137 +7252,281 @@
         <v>1</v>
       </c>
       <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
         <v>31</v>
       </c>
-      <c r="D134">
+      <c r="G134">
         <v>30</v>
       </c>
-      <c r="E134">
-        <v>8</v>
-      </c>
-      <c r="F134">
+      <c r="H134">
+        <v>113</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>9.5023150000000008E-3</v>
+      </c>
+      <c r="K134">
         <v>4</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>16</v>
+      </c>
+      <c r="M134">
+        <v>106.2375152</v>
+      </c>
+      <c r="N134">
+        <v>9</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>53</v>
       </c>
-      <c r="D135">
+      <c r="G135">
         <v>17</v>
       </c>
-      <c r="E135">
-        <v>8</v>
-      </c>
-      <c r="F135">
+      <c r="H135">
+        <v>77</v>
+      </c>
+      <c r="I135">
+        <v>8</v>
+      </c>
+      <c r="J135">
+        <v>236.96870369999999</v>
+      </c>
+      <c r="K135">
         <v>3</v>
       </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>15</v>
+      </c>
+      <c r="M135">
+        <v>1.004219967</v>
+      </c>
+      <c r="N135">
+        <v>8</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>0.81807731900000003</v>
+      </c>
+      <c r="F136">
         <v>173</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>13.5</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>7</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
         <v>6</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>8</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>16</v>
+      </c>
+      <c r="I137">
+        <v>8</v>
+      </c>
+      <c r="J137">
+        <v>237.76144679999999</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>12</v>
+      </c>
+      <c r="M137">
+        <v>1.004205896</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>0.91829583400000003</v>
+      </c>
+      <c r="F138">
         <v>3</v>
       </c>
-      <c r="D138">
+      <c r="G138">
         <v>3</v>
       </c>
-      <c r="E138">
+      <c r="H138">
+        <v>235.5</v>
+      </c>
+      <c r="I138">
         <v>7</v>
       </c>
-      <c r="F138">
+      <c r="J138">
+        <v>12.369056710000001</v>
+      </c>
+      <c r="K138">
         <v>41</v>
       </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>2752.5</v>
+      </c>
+      <c r="M138">
+        <v>1.1258302929999999</v>
+      </c>
+      <c r="N138">
+        <v>1821</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>3</v>
       </c>
-      <c r="B139">
+      <c r="D139">
         <v>6</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
       <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
         <v>7</v>
       </c>
-      <c r="F139">
+      <c r="J139">
+        <v>44.707129629999997</v>
+      </c>
+      <c r="K139">
         <v>6</v>
       </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>2748.5</v>
+      </c>
+      <c r="M139">
+        <v>1.009133517</v>
+      </c>
+      <c r="N139">
+        <v>696</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4168,114 +7534,234 @@
         <v>1</v>
       </c>
       <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
         <v>7</v>
       </c>
-      <c r="D140">
+      <c r="G140">
         <v>32</v>
       </c>
-      <c r="E140">
+      <c r="H140">
+        <v>90</v>
+      </c>
+      <c r="I140">
         <v>7</v>
       </c>
-      <c r="F140">
+      <c r="J140">
+        <v>3.9308564810000002</v>
+      </c>
+      <c r="K140">
         <v>4</v>
       </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>2745</v>
+      </c>
+      <c r="M140">
+        <v>1.2543974840000001</v>
+      </c>
+      <c r="N140">
+        <v>1819</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141">
+        <v>0.97095059399999994</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>886.5</v>
+      </c>
+      <c r="I141">
         <v>7</v>
       </c>
-      <c r="F141">
+      <c r="J141">
+        <v>7.1359722220000004</v>
+      </c>
+      <c r="K141">
         <v>90</v>
       </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>2743.5</v>
+      </c>
+      <c r="M141">
+        <v>1.073359876</v>
+      </c>
+      <c r="N141">
+        <v>1818</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
         <v>5</v>
       </c>
-      <c r="B142">
+      <c r="D142">
         <v>11</v>
       </c>
-      <c r="C142">
+      <c r="E142">
+        <v>0.324747748</v>
+      </c>
+      <c r="F142">
         <v>75</v>
       </c>
-      <c r="D142">
+      <c r="G142">
         <v>43</v>
       </c>
-      <c r="E142">
+      <c r="H142">
+        <v>309.63636359999998</v>
+      </c>
+      <c r="I142">
         <v>7</v>
       </c>
-      <c r="F142">
+      <c r="J142">
+        <v>1.046199495</v>
+      </c>
+      <c r="K142">
         <v>214</v>
       </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>2737</v>
+      </c>
+      <c r="M142">
+        <v>0.19769703399999999</v>
+      </c>
+      <c r="N142">
+        <v>1816</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
         <v>13</v>
       </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>3021</v>
+      </c>
+      <c r="I143">
         <v>7</v>
       </c>
-      <c r="F143">
+      <c r="J143">
+        <v>0.17343749999999999</v>
+      </c>
+      <c r="K143">
         <v>129</v>
       </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>2731</v>
+      </c>
+      <c r="M143">
+        <v>6.7657657660000003</v>
+      </c>
+      <c r="N143">
+        <v>1815</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>0.93058612900000004</v>
+      </c>
+      <c r="F144">
         <v>24</v>
       </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144">
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>766</v>
+      </c>
+      <c r="I144">
         <v>7</v>
       </c>
-      <c r="F144">
+      <c r="J144">
+        <v>14.14850116</v>
+      </c>
+      <c r="K144">
         <v>53</v>
       </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>2729.5</v>
+      </c>
+      <c r="M144">
+        <v>1.0560517700000001</v>
+      </c>
+      <c r="N144">
+        <v>1814</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4283,22 +7769,46 @@
         <v>1</v>
       </c>
       <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
         <v>16</v>
       </c>
-      <c r="D145">
-        <v>8</v>
-      </c>
-      <c r="E145">
+      <c r="G145">
+        <v>8</v>
+      </c>
+      <c r="H145">
+        <v>117</v>
+      </c>
+      <c r="I145">
         <v>6</v>
       </c>
-      <c r="F145">
-        <v>8</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>279.17653940000002</v>
+      </c>
+      <c r="K145">
+        <v>8</v>
+      </c>
+      <c r="L145">
+        <v>2728</v>
+      </c>
+      <c r="M145">
+        <v>1.003581963</v>
+      </c>
+      <c r="N145">
+        <v>1812</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4306,91 +7816,187 @@
         <v>1</v>
       </c>
       <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
         <v>5</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>152</v>
+      </c>
+      <c r="I146">
         <v>7</v>
       </c>
-      <c r="F146">
+      <c r="J146">
+        <v>111.4401852</v>
+      </c>
+      <c r="K146">
         <v>18</v>
       </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>2727</v>
+      </c>
+      <c r="M146">
+        <v>1.0089734239999999</v>
+      </c>
+      <c r="N146">
+        <v>1811</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
         <v>5</v>
       </c>
-      <c r="B147">
+      <c r="D147">
         <v>5</v>
       </c>
-      <c r="C147">
+      <c r="E147">
+        <v>0.95176267599999997</v>
+      </c>
+      <c r="F147">
         <v>32</v>
       </c>
-      <c r="D147">
+      <c r="G147">
         <v>3</v>
       </c>
-      <c r="E147">
+      <c r="H147">
+        <v>919.8</v>
+      </c>
+      <c r="I147">
         <v>7</v>
       </c>
-      <c r="F147">
+      <c r="J147">
+        <v>3.0466157410000001</v>
+      </c>
+      <c r="K147">
         <v>210</v>
       </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>2724</v>
+      </c>
+      <c r="M147">
+        <v>0.43114007199999999</v>
+      </c>
+      <c r="N147">
+        <v>1810</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>0.45668363200000001</v>
+      </c>
+      <c r="F148">
         <v>48</v>
       </c>
-      <c r="D148">
+      <c r="G148">
         <v>4</v>
       </c>
-      <c r="E148">
+      <c r="H148">
+        <v>214.5</v>
+      </c>
+      <c r="I148">
         <v>7</v>
       </c>
-      <c r="F148">
+      <c r="J148">
+        <v>45.226359950000003</v>
+      </c>
+      <c r="K148">
         <v>33</v>
       </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>2720.5</v>
+      </c>
+      <c r="M148">
+        <v>1.0446231619999999</v>
+      </c>
+      <c r="N148">
+        <v>1808</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>15</v>
       </c>
-      <c r="D149">
+      <c r="G149">
         <v>13</v>
       </c>
-      <c r="E149">
+      <c r="H149">
+        <v>222</v>
+      </c>
+      <c r="I149">
         <v>7</v>
       </c>
-      <c r="F149">
+      <c r="J149">
+        <v>41.996238429999998</v>
+      </c>
+      <c r="K149">
         <v>6</v>
       </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>2719</v>
+      </c>
+      <c r="M149">
+        <v>1.0238116559999999</v>
+      </c>
+      <c r="N149">
+        <v>1806</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4398,252 +8004,516 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1598</v>
+      </c>
+      <c r="I150">
         <v>7</v>
       </c>
-      <c r="F150">
+      <c r="J150">
+        <v>6.9758796299999997</v>
+      </c>
+      <c r="K150">
         <v>81</v>
       </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>2718</v>
+      </c>
+      <c r="M150">
+        <v>1.143351097</v>
+      </c>
+      <c r="N150">
+        <v>1805</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
         <v>7</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>123</v>
+      </c>
+      <c r="I151">
         <v>6</v>
       </c>
-      <c r="F151">
+      <c r="J151">
+        <v>0.68431713000000005</v>
+      </c>
+      <c r="K151">
         <v>10</v>
       </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>2717</v>
+      </c>
+      <c r="M151">
+        <v>2.461310782</v>
+      </c>
+      <c r="N151">
+        <v>187</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
         <v>3</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>121</v>
+      </c>
+      <c r="I152">
         <v>6</v>
       </c>
-      <c r="F152">
+      <c r="J152">
+        <v>60.132175930000002</v>
+      </c>
+      <c r="K152">
         <v>9</v>
       </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>2716</v>
+      </c>
+      <c r="M152">
+        <v>1.0166300319999999</v>
+      </c>
+      <c r="N152">
+        <v>186</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
         <v>6</v>
       </c>
-      <c r="B153">
+      <c r="D153">
         <v>6</v>
       </c>
-      <c r="C153">
+      <c r="E153">
+        <v>1.806497118</v>
+      </c>
+      <c r="F153">
         <v>37</v>
       </c>
-      <c r="D153">
+      <c r="G153">
         <v>24</v>
       </c>
-      <c r="E153">
+      <c r="H153">
+        <v>870.16666669999995</v>
+      </c>
+      <c r="I153">
         <v>7</v>
       </c>
-      <c r="F153">
+      <c r="J153">
+        <v>8.7562885799999997</v>
+      </c>
+      <c r="K153">
         <v>304</v>
       </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>2712.5</v>
+      </c>
+      <c r="M153">
+        <v>1.0302383580000001</v>
+      </c>
+      <c r="N153">
+        <v>1804</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
         <v>4</v>
       </c>
-      <c r="C154">
+      <c r="E154">
+        <v>1.471767882</v>
+      </c>
+      <c r="F154">
         <v>68</v>
       </c>
-      <c r="D154">
+      <c r="G154">
         <v>14</v>
       </c>
-      <c r="E154">
+      <c r="H154">
+        <v>473.75</v>
+      </c>
+      <c r="I154">
         <v>7</v>
       </c>
-      <c r="F154">
+      <c r="J154">
+        <v>1.0218258099999999</v>
+      </c>
+      <c r="K154">
         <v>95</v>
       </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>2707.5</v>
+      </c>
+      <c r="M154">
+        <v>1.4986385870000001</v>
+      </c>
+      <c r="N154">
+        <v>1799</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>0.52255937500000005</v>
+      </c>
+      <c r="F155">
         <v>11</v>
       </c>
-      <c r="D155">
+      <c r="G155">
         <v>6</v>
       </c>
-      <c r="E155">
+      <c r="H155">
+        <v>266</v>
+      </c>
+      <c r="I155">
         <v>7</v>
       </c>
-      <c r="F155">
+      <c r="J155">
+        <v>6.1770832999999997E-2</v>
+      </c>
+      <c r="K155">
         <v>34</v>
       </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>2704.5</v>
+      </c>
+      <c r="M155">
+        <v>11.110375429999999</v>
+      </c>
+      <c r="N155">
+        <v>1795</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
         <v>3</v>
       </c>
-      <c r="C156">
+      <c r="E156">
+        <v>1.122113677</v>
+      </c>
+      <c r="F156">
         <v>21</v>
       </c>
-      <c r="D156">
+      <c r="G156">
         <v>15</v>
       </c>
-      <c r="E156">
+      <c r="H156">
+        <v>694.66666669999995</v>
+      </c>
+      <c r="I156">
         <v>7</v>
       </c>
-      <c r="F156">
+      <c r="J156">
+        <v>47.692839509999999</v>
+      </c>
+      <c r="K156">
         <v>120</v>
       </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>2702</v>
+      </c>
+      <c r="M156">
+        <v>1.01360684</v>
+      </c>
+      <c r="N156">
+        <v>1793</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
         <v>3</v>
       </c>
-      <c r="B157">
+      <c r="D157">
         <v>6</v>
       </c>
-      <c r="C157">
+      <c r="E157">
+        <v>1.7071693080000001</v>
+      </c>
+      <c r="F157">
         <v>136</v>
       </c>
-      <c r="D157">
+      <c r="G157">
         <v>63</v>
       </c>
-      <c r="E157">
+      <c r="H157">
+        <v>308</v>
+      </c>
+      <c r="I157">
         <v>7</v>
       </c>
-      <c r="F157">
+      <c r="J157">
+        <v>82.54079668</v>
+      </c>
+      <c r="K157">
         <v>72</v>
       </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>2697.5</v>
+      </c>
+      <c r="M157">
+        <v>1.0123967</v>
+      </c>
+      <c r="N157">
+        <v>1790</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>0.89049164000000003</v>
+      </c>
+      <c r="F158">
         <v>12</v>
       </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>75.5</v>
+      </c>
+      <c r="I158">
         <v>7</v>
       </c>
-      <c r="F158">
+      <c r="J158">
+        <v>56.379728010000001</v>
+      </c>
+      <c r="K158">
         <v>7</v>
       </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>2693.5</v>
+      </c>
+      <c r="M158">
+        <v>1.1008860410000001</v>
+      </c>
+      <c r="N158">
+        <v>16</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
         <v>4</v>
       </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1563</v>
+      </c>
+      <c r="I159">
         <v>7</v>
       </c>
-      <c r="F159">
+      <c r="J159">
+        <v>0.56126157399999999</v>
+      </c>
+      <c r="K159">
         <v>77</v>
       </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>2692</v>
+      </c>
+      <c r="M159">
+        <v>2.7817004519999999</v>
+      </c>
+      <c r="N159">
+        <v>1783</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>0.81127812399999999</v>
+      </c>
+      <c r="F160">
         <v>13</v>
       </c>
-      <c r="D160">
+      <c r="G160">
         <v>19</v>
       </c>
-      <c r="E160">
+      <c r="H160">
+        <v>235</v>
+      </c>
+      <c r="I160">
         <v>7</v>
       </c>
-      <c r="F160">
+      <c r="J160">
+        <v>3.9547916669999998</v>
+      </c>
+      <c r="K160">
         <v>38</v>
       </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>2690.5</v>
+      </c>
+      <c r="M160">
+        <v>1.189643365</v>
+      </c>
+      <c r="N160">
+        <v>1782</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4651,114 +8521,235 @@
         <v>1</v>
       </c>
       <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
         <v>5</v>
       </c>
-      <c r="D161">
+      <c r="G161">
         <v>3</v>
       </c>
-      <c r="E161">
+      <c r="H161">
+        <v>1561</v>
+      </c>
+      <c r="I161">
         <v>7</v>
       </c>
-      <c r="F161">
+      <c r="J161">
+        <v>3.954502315</v>
+      </c>
+      <c r="K161">
         <v>76</v>
       </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>2689</v>
+      </c>
+      <c r="M161">
+        <v>1.2528763220000001</v>
+      </c>
+      <c r="N161">
+        <v>1780</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
         <v>3</v>
       </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>394</v>
+      </c>
+      <c r="I162">
         <v>7</v>
       </c>
-      <c r="F162">
+      <c r="J162">
+        <v>10.77141204</v>
+      </c>
+      <c r="K162">
         <v>71</v>
       </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>2688</v>
+      </c>
+      <c r="M162">
+        <v>1.092838339</v>
+      </c>
+      <c r="N162">
+        <v>185</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
         <v>4</v>
       </c>
-      <c r="C163">
+      <c r="E163">
+        <v>1.783254753</v>
+      </c>
+      <c r="F163">
         <v>37</v>
       </c>
-      <c r="D163">
+      <c r="G163">
         <v>23</v>
       </c>
-      <c r="E163">
+      <c r="H163">
+        <v>1252.75</v>
+      </c>
+      <c r="I163">
         <v>7</v>
       </c>
-      <c r="F163">
+      <c r="J163">
+        <v>0.50666087999999998</v>
+      </c>
+      <c r="K163">
         <v>237</v>
       </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>2685.5</v>
+      </c>
+      <c r="M163">
+        <v>1.8890716679999999</v>
+      </c>
+      <c r="N163">
+        <v>1779</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
         <v>6</v>
       </c>
-      <c r="B164">
+      <c r="D164">
         <v>10</v>
       </c>
-      <c r="C164">
+      <c r="E164">
+        <v>2.5548859209999999</v>
+      </c>
+      <c r="F164">
         <v>250</v>
       </c>
-      <c r="D164">
+      <c r="G164">
         <v>232</v>
       </c>
-      <c r="E164">
+      <c r="H164">
+        <v>538.79999999999995</v>
+      </c>
+      <c r="I164">
         <v>7</v>
       </c>
-      <c r="F164">
+      <c r="J164">
+        <v>14.59335301</v>
+      </c>
+      <c r="K164">
         <v>269</v>
       </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>2678.5</v>
+      </c>
+      <c r="M164">
+        <v>2.561951761</v>
+      </c>
+      <c r="N164">
+        <v>1775</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
         <v>3</v>
       </c>
-      <c r="B165">
+      <c r="D165">
         <v>4</v>
       </c>
-      <c r="C165">
+      <c r="E165">
+        <v>1.0491896759999999</v>
+      </c>
+      <c r="F165">
         <v>5</v>
       </c>
-      <c r="D165">
+      <c r="G165">
         <v>144</v>
       </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
